--- a/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7_极光组.xlsx
+++ b/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7_极光组.xlsx
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$U$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$V$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -291,13 +291,23 @@
   <si>
     <t>韩美娟</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2217</t>
+  </si>
+  <si>
+    <t>DV-2219</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -536,6 +546,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -748,7 +766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,8 +798,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,8 +1136,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1128,6 +1164,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
@@ -1567,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:W165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1591,15 +1628,16 @@
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="12" style="34" customWidth="1"/>
-    <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="7.625" style="113" customWidth="1"/>
+    <col min="19" max="19" width="12" style="34" customWidth="1"/>
+    <col min="20" max="20" width="17" style="34" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="34" customWidth="1"/>
+    <col min="22" max="22" width="41.875" style="33" customWidth="1"/>
+    <col min="23" max="23" width="8.875" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1651,20 +1689,23 @@
       <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="33" customHeight="1">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1714,13 +1755,16 @@
       <c r="Q2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="51"/>
-    </row>
-    <row r="3" spans="1:22" s="87" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R2" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51"/>
+    </row>
+    <row r="3" spans="1:23" s="87" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="70">
         <v>2</v>
       </c>
@@ -1770,13 +1814,16 @@
       <c r="Q3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="84"/>
+      <c r="R3" s="114" t="s">
+        <v>82</v>
+      </c>
       <c r="S3" s="84"/>
       <c r="T3" s="84"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
-    </row>
-    <row r="4" spans="1:22" ht="21.75" customHeight="1">
+      <c r="U3" s="84"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="86"/>
+    </row>
+    <row r="4" spans="1:23" ht="21.75" customHeight="1">
       <c r="A4" s="70"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1794,12 +1841,13 @@
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="83"/>
-      <c r="R4" s="44"/>
+      <c r="R4" s="83"/>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5">
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5">
       <c r="A5" s="70"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1817,12 +1865,13 @@
       <c r="O5" s="44"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="83"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="83"/>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="70"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -1840,13 +1889,14 @@
       <c r="O6" s="75"/>
       <c r="P6" s="91"/>
       <c r="Q6" s="75"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="75"/>
       <c r="S6" s="44"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="51"/>
-    </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T6" s="44"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="70"/>
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
@@ -1864,13 +1914,14 @@
       <c r="O7" s="75"/>
       <c r="P7" s="91"/>
       <c r="Q7" s="75"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="75"/>
       <c r="S7" s="44"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="51"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5">
+      <c r="T7" s="44"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="51"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -1888,12 +1939,13 @@
       <c r="O8" s="76"/>
       <c r="P8" s="74"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="76"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" ht="16.5">
+      <c r="U8" s="44"/>
+      <c r="V8" s="45"/>
+    </row>
+    <row r="9" spans="1:23" ht="16.5">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -1911,12 +1963,13 @@
       <c r="O9" s="76"/>
       <c r="P9" s="74"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="76"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.5">
+      <c r="U9" s="44"/>
+      <c r="V9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -1934,12 +1987,13 @@
       <c r="O10" s="76"/>
       <c r="P10" s="74"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="76"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="U10" s="44"/>
+      <c r="V10" s="45"/>
+    </row>
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="63"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -1957,13 +2011,14 @@
       <c r="O11" s="67"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="67"/>
-      <c r="R11" s="53"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="53"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="51"/>
-    </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T11" s="53"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="51"/>
+    </row>
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="63"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -1981,13 +2036,14 @@
       <c r="O12" s="67"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="67"/>
-      <c r="R12" s="44"/>
+      <c r="R12" s="67"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="51"/>
-    </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T12" s="44"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="51"/>
+    </row>
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="63"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -2005,13 +2061,14 @@
       <c r="O13" s="67"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="67"/>
-      <c r="R13" s="44"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="51"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T13" s="44"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="51"/>
+    </row>
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="63"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -2029,13 +2086,14 @@
       <c r="O14" s="67"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="67"/>
-      <c r="R14" s="44"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="51"/>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T14" s="44"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="51"/>
+    </row>
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="63"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -2053,13 +2111,14 @@
       <c r="O15" s="67"/>
       <c r="P15" s="66"/>
       <c r="Q15" s="67"/>
-      <c r="R15" s="44"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="51"/>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T15" s="44"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="51"/>
+    </row>
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="63"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
@@ -2077,13 +2136,14 @@
       <c r="O16" s="67"/>
       <c r="P16" s="66"/>
       <c r="Q16" s="67"/>
-      <c r="R16" s="44"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="51"/>
-    </row>
-    <row r="17" spans="1:21" ht="16.5">
+      <c r="U16" s="44"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="51"/>
+    </row>
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2101,12 +2161,13 @@
       <c r="O17" s="47"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="44"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="52"/>
-    </row>
-    <row r="18" spans="1:21" ht="16.5">
+      <c r="U17" s="44"/>
+      <c r="V17" s="52"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2124,12 +2185,13 @@
       <c r="O18" s="47"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="44"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
-      <c r="U18" s="52"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.5">
+      <c r="U18" s="44"/>
+      <c r="V18" s="52"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2147,12 +2209,13 @@
       <c r="O19" s="47"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="54"/>
+      <c r="R19" s="112"/>
       <c r="S19" s="54"/>
       <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
-    </row>
-    <row r="20" spans="1:21" ht="16.5">
+      <c r="U19" s="54"/>
+      <c r="V19" s="55"/>
+    </row>
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2170,12 +2233,13 @@
       <c r="O20" s="47"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="56"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
-      <c r="U20" s="55"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5">
+      <c r="U20" s="56"/>
+      <c r="V20" s="55"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2193,12 +2257,13 @@
       <c r="O21" s="47"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="56"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="55"/>
-    </row>
-    <row r="22" spans="1:21" ht="16.5">
+      <c r="T21" s="56"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="55"/>
+    </row>
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2216,12 +2281,13 @@
       <c r="O22" s="47"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="56"/>
+      <c r="R22" s="47"/>
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
-      <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.5">
+      <c r="U22" s="56"/>
+      <c r="V22" s="55"/>
+    </row>
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2239,12 +2305,13 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="56"/>
+      <c r="R23" s="47"/>
       <c r="S23" s="56"/>
       <c r="T23" s="56"/>
-      <c r="U23" s="55"/>
-    </row>
-    <row r="24" spans="1:21" ht="16.5">
+      <c r="U23" s="56"/>
+      <c r="V23" s="55"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2262,12 +2329,13 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="53"/>
+      <c r="R24" s="112"/>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
-      <c r="U24" s="47"/>
-    </row>
-    <row r="25" spans="1:21" ht="16.5">
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2285,12 +2353,13 @@
       <c r="O25" s="47"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="44"/>
+      <c r="R25" s="47"/>
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
-      <c r="U25" s="52"/>
-    </row>
-    <row r="26" spans="1:21" ht="16.5">
+      <c r="U25" s="44"/>
+      <c r="V25" s="52"/>
+    </row>
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2308,12 +2377,13 @@
       <c r="O26" s="47"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="44"/>
+      <c r="R26" s="47"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
-      <c r="U26" s="52"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.5">
+      <c r="U26" s="44"/>
+      <c r="V26" s="52"/>
+    </row>
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2331,12 +2401,13 @@
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="44"/>
+      <c r="R27" s="47"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
-      <c r="U27" s="52"/>
-    </row>
-    <row r="28" spans="1:21" ht="16.5">
+      <c r="U27" s="44"/>
+      <c r="V27" s="52"/>
+    </row>
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2354,12 +2425,13 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="56"/>
+      <c r="R28" s="47"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
-      <c r="U28" s="55"/>
-    </row>
-    <row r="29" spans="1:21" ht="16.5">
+      <c r="U28" s="56"/>
+      <c r="V28" s="55"/>
+    </row>
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2377,12 +2449,13 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="44"/>
+      <c r="R29" s="47"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
-      <c r="U29" s="50"/>
-    </row>
-    <row r="30" spans="1:21" ht="16.5">
+      <c r="U29" s="44"/>
+      <c r="V29" s="50"/>
+    </row>
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2400,12 +2473,13 @@
       <c r="O30" s="47"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="47"/>
-      <c r="R30" s="44"/>
+      <c r="R30" s="47"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="52"/>
-    </row>
-    <row r="31" spans="1:21" ht="16.5">
+      <c r="U30" s="44"/>
+      <c r="V30" s="52"/>
+    </row>
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2423,12 +2497,13 @@
       <c r="O31" s="47"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="47"/>
-      <c r="R31" s="44"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
-      <c r="U31" s="52"/>
-    </row>
-    <row r="32" spans="1:21" ht="16.5">
+      <c r="U31" s="44"/>
+      <c r="V31" s="52"/>
+    </row>
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2446,12 +2521,13 @@
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="44"/>
+      <c r="R32" s="47"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
-      <c r="U32" s="52"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5">
+      <c r="U32" s="44"/>
+      <c r="V32" s="52"/>
+    </row>
+    <row r="33" spans="1:22" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2469,12 +2545,13 @@
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="44"/>
+      <c r="R33" s="47"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="52"/>
-    </row>
-    <row r="34" spans="1:21" ht="16.5">
+      <c r="U33" s="44"/>
+      <c r="V33" s="52"/>
+    </row>
+    <row r="34" spans="1:22" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2492,12 +2569,13 @@
       <c r="O34" s="47"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="47"/>
-      <c r="R34" s="44"/>
+      <c r="R34" s="47"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="52"/>
-    </row>
-    <row r="35" spans="1:21" ht="16.5">
+      <c r="U34" s="44"/>
+      <c r="V34" s="52"/>
+    </row>
+    <row r="35" spans="1:22" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2515,12 +2593,13 @@
       <c r="O35" s="47"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="44"/>
+      <c r="R35" s="47"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-      <c r="U35" s="52"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5">
+      <c r="U35" s="44"/>
+      <c r="V35" s="52"/>
+    </row>
+    <row r="36" spans="1:22" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2538,12 +2617,13 @@
       <c r="O36" s="47"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="47"/>
-      <c r="R36" s="44"/>
+      <c r="R36" s="47"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-      <c r="U36" s="52"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5">
+      <c r="U36" s="44"/>
+      <c r="V36" s="52"/>
+    </row>
+    <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2561,12 +2641,13 @@
       <c r="O37" s="47"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="47"/>
-      <c r="R37" s="44"/>
+      <c r="R37" s="47"/>
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
-      <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5">
+      <c r="U37" s="44"/>
+      <c r="V37" s="52"/>
+    </row>
+    <row r="38" spans="1:22" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2584,12 +2665,13 @@
       <c r="O38" s="47"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="47"/>
-      <c r="R38" s="44"/>
+      <c r="R38" s="47"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
-      <c r="U38" s="52"/>
-    </row>
-    <row r="39" spans="1:21" ht="16.5">
+      <c r="U38" s="44"/>
+      <c r="V38" s="52"/>
+    </row>
+    <row r="39" spans="1:22" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2607,12 +2689,13 @@
       <c r="O39" s="47"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="47"/>
-      <c r="R39" s="44"/>
+      <c r="R39" s="47"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
-      <c r="U39" s="52"/>
-    </row>
-    <row r="40" spans="1:21" ht="16.5">
+      <c r="U39" s="44"/>
+      <c r="V39" s="52"/>
+    </row>
+    <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2630,12 +2713,13 @@
       <c r="O40" s="47"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="47"/>
-      <c r="R40" s="53"/>
+      <c r="R40" s="112"/>
       <c r="S40" s="53"/>
       <c r="T40" s="53"/>
-      <c r="U40" s="52"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5">
+      <c r="U40" s="53"/>
+      <c r="V40" s="52"/>
+    </row>
+    <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2653,12 +2737,13 @@
       <c r="O41" s="47"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="47"/>
-      <c r="R41" s="53"/>
+      <c r="R41" s="112"/>
       <c r="S41" s="53"/>
       <c r="T41" s="53"/>
-      <c r="U41" s="52"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.5">
+      <c r="U41" s="53"/>
+      <c r="V41" s="52"/>
+    </row>
+    <row r="42" spans="1:22" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2676,12 +2761,13 @@
       <c r="O42" s="47"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="47"/>
-      <c r="R42" s="44"/>
+      <c r="R42" s="47"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
-      <c r="U42" s="45"/>
-    </row>
-    <row r="43" spans="1:21" ht="16.5">
+      <c r="U42" s="44"/>
+      <c r="V42" s="45"/>
+    </row>
+    <row r="43" spans="1:22" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2699,12 +2785,13 @@
       <c r="O43" s="47"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="47"/>
-      <c r="R43" s="44"/>
+      <c r="R43" s="47"/>
       <c r="S43" s="44"/>
       <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-    </row>
-    <row r="44" spans="1:21" ht="16.5">
+      <c r="U43" s="44"/>
+      <c r="V43" s="45"/>
+    </row>
+    <row r="44" spans="1:22" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2722,12 +2809,13 @@
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="44"/>
+      <c r="R44" s="47"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
-      <c r="U44" s="45"/>
-    </row>
-    <row r="45" spans="1:21" ht="16.5">
+      <c r="U44" s="44"/>
+      <c r="V44" s="45"/>
+    </row>
+    <row r="45" spans="1:22" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2745,12 +2833,13 @@
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="44"/>
+      <c r="R45" s="47"/>
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
-      <c r="U45" s="45"/>
-    </row>
-    <row r="46" spans="1:21" ht="16.5">
+      <c r="U45" s="44"/>
+      <c r="V45" s="45"/>
+    </row>
+    <row r="46" spans="1:22" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2768,12 +2857,13 @@
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="44"/>
+      <c r="R46" s="47"/>
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
-      <c r="U46" s="45"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5">
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+    </row>
+    <row r="47" spans="1:22" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2791,12 +2881,13 @@
       <c r="O47" s="47"/>
       <c r="P47" s="39"/>
       <c r="Q47" s="47"/>
-      <c r="R47" s="44"/>
+      <c r="R47" s="47"/>
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
-      <c r="U47" s="45"/>
-    </row>
-    <row r="48" spans="1:21" ht="16.5">
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+    </row>
+    <row r="48" spans="1:22" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2814,12 +2905,13 @@
       <c r="O48" s="47"/>
       <c r="P48" s="39"/>
       <c r="Q48" s="47"/>
-      <c r="R48" s="44"/>
+      <c r="R48" s="47"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
-      <c r="U48" s="45"/>
-    </row>
-    <row r="49" spans="1:21" ht="16.5">
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+    </row>
+    <row r="49" spans="1:22" ht="16.5">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -2837,12 +2929,13 @@
       <c r="O49" s="44"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="45"/>
-      <c r="R49" s="44"/>
+      <c r="R49" s="45"/>
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5">
+      <c r="U49" s="44"/>
+      <c r="V49" s="45"/>
+    </row>
+    <row r="50" spans="1:22" ht="16.5">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -2860,12 +2953,13 @@
       <c r="O50" s="44"/>
       <c r="P50" s="46"/>
       <c r="Q50" s="45"/>
-      <c r="R50" s="44"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
-      <c r="U50" s="45"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5">
+      <c r="U50" s="44"/>
+      <c r="V50" s="45"/>
+    </row>
+    <row r="51" spans="1:22" ht="16.5">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -2883,12 +2977,13 @@
       <c r="O51" s="44"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="45"/>
-      <c r="R51" s="44"/>
+      <c r="R51" s="45"/>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
-      <c r="U51" s="45"/>
-    </row>
-    <row r="52" spans="1:21" ht="16.5">
+      <c r="U51" s="44"/>
+      <c r="V51" s="45"/>
+    </row>
+    <row r="52" spans="1:22" ht="16.5">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -2906,12 +3001,13 @@
       <c r="O52" s="44"/>
       <c r="P52" s="46"/>
       <c r="Q52" s="45"/>
-      <c r="R52" s="44"/>
+      <c r="R52" s="45"/>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
-      <c r="U52" s="45"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.5">
+      <c r="U52" s="44"/>
+      <c r="V52" s="45"/>
+    </row>
+    <row r="53" spans="1:22" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -2929,12 +3025,13 @@
       <c r="O53" s="44"/>
       <c r="P53" s="46"/>
       <c r="Q53" s="45"/>
-      <c r="R53" s="44"/>
+      <c r="R53" s="45"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
-      <c r="U53" s="45"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.5">
+      <c r="U53" s="44"/>
+      <c r="V53" s="45"/>
+    </row>
+    <row r="54" spans="1:22" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2952,12 +3049,13 @@
       <c r="O54" s="44"/>
       <c r="P54" s="46"/>
       <c r="Q54" s="45"/>
-      <c r="R54" s="44"/>
+      <c r="R54" s="45"/>
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
-      <c r="U54" s="45"/>
-    </row>
-    <row r="55" spans="1:21" ht="16.5">
+      <c r="U54" s="44"/>
+      <c r="V54" s="45"/>
+    </row>
+    <row r="55" spans="1:22" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2975,12 +3073,13 @@
       <c r="O55" s="44"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="45"/>
-      <c r="R55" s="44"/>
+      <c r="R55" s="45"/>
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-    </row>
-    <row r="56" spans="1:21" ht="16.5">
+      <c r="U55" s="44"/>
+      <c r="V55" s="45"/>
+    </row>
+    <row r="56" spans="1:22" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2998,12 +3097,13 @@
       <c r="O56" s="44"/>
       <c r="P56" s="46"/>
       <c r="Q56" s="45"/>
-      <c r="R56" s="44"/>
+      <c r="R56" s="45"/>
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
-      <c r="U56" s="45"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.5">
+      <c r="U56" s="44"/>
+      <c r="V56" s="45"/>
+    </row>
+    <row r="57" spans="1:22" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3021,12 +3121,13 @@
       <c r="O57" s="44"/>
       <c r="P57" s="46"/>
       <c r="Q57" s="45"/>
-      <c r="R57" s="44"/>
+      <c r="R57" s="45"/>
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
-      <c r="U57" s="45"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.5">
+      <c r="U57" s="44"/>
+      <c r="V57" s="45"/>
+    </row>
+    <row r="58" spans="1:22" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3044,12 +3145,13 @@
       <c r="O58" s="44"/>
       <c r="P58" s="46"/>
       <c r="Q58" s="45"/>
-      <c r="R58" s="44"/>
+      <c r="R58" s="45"/>
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
-      <c r="U58" s="45"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.5">
+      <c r="U58" s="44"/>
+      <c r="V58" s="45"/>
+    </row>
+    <row r="59" spans="1:22" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3067,12 +3169,13 @@
       <c r="O59" s="44"/>
       <c r="P59" s="46"/>
       <c r="Q59" s="45"/>
-      <c r="R59" s="44"/>
+      <c r="R59" s="45"/>
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
-      <c r="U59" s="45"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.5">
+      <c r="U59" s="44"/>
+      <c r="V59" s="45"/>
+    </row>
+    <row r="60" spans="1:22" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3090,12 +3193,13 @@
       <c r="O60" s="44"/>
       <c r="P60" s="46"/>
       <c r="Q60" s="45"/>
-      <c r="R60" s="44"/>
+      <c r="R60" s="45"/>
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
-      <c r="U60" s="45"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.5">
+      <c r="U60" s="44"/>
+      <c r="V60" s="45"/>
+    </row>
+    <row r="61" spans="1:22" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3113,12 +3217,13 @@
       <c r="O61" s="44"/>
       <c r="P61" s="46"/>
       <c r="Q61" s="45"/>
-      <c r="R61" s="44"/>
+      <c r="R61" s="45"/>
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
-      <c r="U61" s="45"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.5">
+      <c r="U61" s="44"/>
+      <c r="V61" s="45"/>
+    </row>
+    <row r="62" spans="1:22" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3136,12 +3241,13 @@
       <c r="O62" s="44"/>
       <c r="P62" s="46"/>
       <c r="Q62" s="45"/>
-      <c r="R62" s="44"/>
+      <c r="R62" s="45"/>
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
-      <c r="U62" s="45"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.5">
+      <c r="U62" s="44"/>
+      <c r="V62" s="45"/>
+    </row>
+    <row r="63" spans="1:22" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3159,12 +3265,13 @@
       <c r="O63" s="44"/>
       <c r="P63" s="46"/>
       <c r="Q63" s="45"/>
-      <c r="R63" s="44"/>
+      <c r="R63" s="45"/>
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
-      <c r="U63" s="45"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.5">
+      <c r="U63" s="44"/>
+      <c r="V63" s="45"/>
+    </row>
+    <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3182,12 +3289,13 @@
       <c r="O64" s="44"/>
       <c r="P64" s="46"/>
       <c r="Q64" s="45"/>
-      <c r="R64" s="44"/>
+      <c r="R64" s="45"/>
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
-      <c r="U64" s="45"/>
-    </row>
-    <row r="65" spans="1:21" ht="16.5">
+      <c r="U64" s="44"/>
+      <c r="V64" s="45"/>
+    </row>
+    <row r="65" spans="1:22" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3205,12 +3313,13 @@
       <c r="O65" s="44"/>
       <c r="P65" s="46"/>
       <c r="Q65" s="45"/>
-      <c r="R65" s="44"/>
+      <c r="R65" s="45"/>
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
-      <c r="U65" s="45"/>
-    </row>
-    <row r="66" spans="1:21" ht="16.5">
+      <c r="U65" s="44"/>
+      <c r="V65" s="45"/>
+    </row>
+    <row r="66" spans="1:22" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3228,12 +3337,13 @@
       <c r="O66" s="44"/>
       <c r="P66" s="46"/>
       <c r="Q66" s="45"/>
-      <c r="R66" s="44"/>
+      <c r="R66" s="45"/>
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
-      <c r="U66" s="45"/>
-    </row>
-    <row r="67" spans="1:21" ht="16.5">
+      <c r="U66" s="44"/>
+      <c r="V66" s="45"/>
+    </row>
+    <row r="67" spans="1:22" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3251,12 +3361,13 @@
       <c r="O67" s="44"/>
       <c r="P67" s="46"/>
       <c r="Q67" s="45"/>
-      <c r="R67" s="44"/>
+      <c r="R67" s="45"/>
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-    </row>
-    <row r="68" spans="1:21" ht="16.5">
+      <c r="U67" s="44"/>
+      <c r="V67" s="45"/>
+    </row>
+    <row r="68" spans="1:22" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3274,12 +3385,13 @@
       <c r="O68" s="44"/>
       <c r="P68" s="46"/>
       <c r="Q68" s="45"/>
-      <c r="R68" s="44"/>
+      <c r="R68" s="45"/>
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
-      <c r="U68" s="45"/>
-    </row>
-    <row r="69" spans="1:21" ht="16.5">
+      <c r="U68" s="44"/>
+      <c r="V68" s="45"/>
+    </row>
+    <row r="69" spans="1:22" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3297,12 +3409,13 @@
       <c r="O69" s="44"/>
       <c r="P69" s="46"/>
       <c r="Q69" s="45"/>
-      <c r="R69" s="44"/>
+      <c r="R69" s="45"/>
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
-      <c r="U69" s="45"/>
-    </row>
-    <row r="70" spans="1:21" ht="16.5">
+      <c r="U69" s="44"/>
+      <c r="V69" s="45"/>
+    </row>
+    <row r="70" spans="1:22" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3320,12 +3433,13 @@
       <c r="O70" s="44"/>
       <c r="P70" s="46"/>
       <c r="Q70" s="45"/>
-      <c r="R70" s="44"/>
+      <c r="R70" s="45"/>
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
-      <c r="U70" s="45"/>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="U70" s="44"/>
+      <c r="V70" s="45"/>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3343,12 +3457,13 @@
       <c r="O71" s="44"/>
       <c r="P71" s="46"/>
       <c r="Q71" s="45"/>
-      <c r="R71" s="44"/>
+      <c r="R71" s="45"/>
       <c r="S71" s="44"/>
       <c r="T71" s="44"/>
-      <c r="U71" s="45"/>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="U71" s="44"/>
+      <c r="V71" s="45"/>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3366,12 +3481,13 @@
       <c r="O72" s="44"/>
       <c r="P72" s="46"/>
       <c r="Q72" s="45"/>
-      <c r="R72" s="44"/>
+      <c r="R72" s="45"/>
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
-      <c r="U72" s="45"/>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="U72" s="44"/>
+      <c r="V72" s="45"/>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3389,12 +3505,13 @@
       <c r="O73" s="44"/>
       <c r="P73" s="46"/>
       <c r="Q73" s="45"/>
-      <c r="R73" s="44"/>
+      <c r="R73" s="45"/>
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
-      <c r="U73" s="45"/>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="U73" s="44"/>
+      <c r="V73" s="45"/>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3412,12 +3529,13 @@
       <c r="O74" s="44"/>
       <c r="P74" s="46"/>
       <c r="Q74" s="45"/>
-      <c r="R74" s="44"/>
+      <c r="R74" s="45"/>
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
-      <c r="U74" s="45"/>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="U74" s="44"/>
+      <c r="V74" s="45"/>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3435,12 +3553,13 @@
       <c r="O75" s="44"/>
       <c r="P75" s="46"/>
       <c r="Q75" s="45"/>
-      <c r="R75" s="44"/>
+      <c r="R75" s="45"/>
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
-      <c r="U75" s="45"/>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="U75" s="44"/>
+      <c r="V75" s="45"/>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3458,12 +3577,13 @@
       <c r="O76" s="44"/>
       <c r="P76" s="46"/>
       <c r="Q76" s="45"/>
-      <c r="R76" s="44"/>
+      <c r="R76" s="45"/>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
-      <c r="U76" s="45"/>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="U76" s="44"/>
+      <c r="V76" s="45"/>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3481,12 +3601,13 @@
       <c r="O77" s="44"/>
       <c r="P77" s="46"/>
       <c r="Q77" s="45"/>
-      <c r="R77" s="44"/>
+      <c r="R77" s="45"/>
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
-      <c r="U77" s="45"/>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="U77" s="44"/>
+      <c r="V77" s="45"/>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3504,12 +3625,13 @@
       <c r="O78" s="44"/>
       <c r="P78" s="46"/>
       <c r="Q78" s="45"/>
-      <c r="R78" s="44"/>
+      <c r="R78" s="45"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
-      <c r="U78" s="45"/>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="U78" s="44"/>
+      <c r="V78" s="45"/>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3527,12 +3649,13 @@
       <c r="O79" s="44"/>
       <c r="P79" s="46"/>
       <c r="Q79" s="45"/>
-      <c r="R79" s="44"/>
+      <c r="R79" s="45"/>
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
-      <c r="U79" s="45"/>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="U79" s="44"/>
+      <c r="V79" s="45"/>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3550,12 +3673,13 @@
       <c r="O80" s="44"/>
       <c r="P80" s="46"/>
       <c r="Q80" s="45"/>
-      <c r="R80" s="44"/>
+      <c r="R80" s="45"/>
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
-      <c r="U80" s="45"/>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="U80" s="44"/>
+      <c r="V80" s="45"/>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3573,12 +3697,13 @@
       <c r="O81" s="44"/>
       <c r="P81" s="46"/>
       <c r="Q81" s="45"/>
-      <c r="R81" s="44"/>
+      <c r="R81" s="45"/>
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
-      <c r="U81" s="45"/>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="U81" s="44"/>
+      <c r="V81" s="45"/>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3596,12 +3721,13 @@
       <c r="O82" s="44"/>
       <c r="P82" s="46"/>
       <c r="Q82" s="45"/>
-      <c r="R82" s="44"/>
+      <c r="R82" s="45"/>
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
-      <c r="U82" s="45"/>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="U82" s="44"/>
+      <c r="V82" s="45"/>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3619,12 +3745,13 @@
       <c r="O83" s="44"/>
       <c r="P83" s="46"/>
       <c r="Q83" s="45"/>
-      <c r="R83" s="44"/>
+      <c r="R83" s="45"/>
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
-      <c r="U83" s="45"/>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="U83" s="44"/>
+      <c r="V83" s="45"/>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3642,12 +3769,13 @@
       <c r="O84" s="44"/>
       <c r="P84" s="46"/>
       <c r="Q84" s="45"/>
-      <c r="R84" s="44"/>
+      <c r="R84" s="45"/>
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
-      <c r="U84" s="45"/>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="U84" s="44"/>
+      <c r="V84" s="45"/>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3665,12 +3793,13 @@
       <c r="O85" s="44"/>
       <c r="P85" s="46"/>
       <c r="Q85" s="45"/>
-      <c r="R85" s="44"/>
+      <c r="R85" s="45"/>
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
-      <c r="U85" s="45"/>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="U85" s="44"/>
+      <c r="V85" s="45"/>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3688,12 +3817,13 @@
       <c r="O86" s="44"/>
       <c r="P86" s="46"/>
       <c r="Q86" s="45"/>
-      <c r="R86" s="44"/>
+      <c r="R86" s="45"/>
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
-      <c r="U86" s="45"/>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="U86" s="44"/>
+      <c r="V86" s="45"/>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3711,12 +3841,13 @@
       <c r="O87" s="44"/>
       <c r="P87" s="46"/>
       <c r="Q87" s="45"/>
-      <c r="R87" s="44"/>
+      <c r="R87" s="45"/>
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
-      <c r="U87" s="45"/>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="U87" s="44"/>
+      <c r="V87" s="45"/>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3734,12 +3865,13 @@
       <c r="O88" s="44"/>
       <c r="P88" s="46"/>
       <c r="Q88" s="45"/>
-      <c r="R88" s="44"/>
+      <c r="R88" s="45"/>
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
-      <c r="U88" s="45"/>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="U88" s="44"/>
+      <c r="V88" s="45"/>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3757,12 +3889,13 @@
       <c r="O89" s="44"/>
       <c r="P89" s="46"/>
       <c r="Q89" s="45"/>
-      <c r="R89" s="44"/>
+      <c r="R89" s="45"/>
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
-      <c r="U89" s="45"/>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="U89" s="44"/>
+      <c r="V89" s="45"/>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3780,12 +3913,13 @@
       <c r="O90" s="44"/>
       <c r="P90" s="46"/>
       <c r="Q90" s="45"/>
-      <c r="R90" s="44"/>
+      <c r="R90" s="45"/>
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
-      <c r="U90" s="45"/>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="U90" s="44"/>
+      <c r="V90" s="45"/>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3803,12 +3937,13 @@
       <c r="O91" s="44"/>
       <c r="P91" s="46"/>
       <c r="Q91" s="45"/>
-      <c r="R91" s="44"/>
+      <c r="R91" s="45"/>
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
-      <c r="U91" s="45"/>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="U91" s="44"/>
+      <c r="V91" s="45"/>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3826,12 +3961,13 @@
       <c r="O92" s="44"/>
       <c r="P92" s="46"/>
       <c r="Q92" s="45"/>
-      <c r="R92" s="44"/>
+      <c r="R92" s="45"/>
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
-      <c r="U92" s="45"/>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="U92" s="44"/>
+      <c r="V92" s="45"/>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3849,12 +3985,13 @@
       <c r="O93" s="44"/>
       <c r="P93" s="46"/>
       <c r="Q93" s="45"/>
-      <c r="R93" s="44"/>
+      <c r="R93" s="45"/>
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
-      <c r="U93" s="45"/>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="U93" s="44"/>
+      <c r="V93" s="45"/>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3872,12 +4009,13 @@
       <c r="O94" s="44"/>
       <c r="P94" s="46"/>
       <c r="Q94" s="45"/>
-      <c r="R94" s="44"/>
+      <c r="R94" s="45"/>
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
-      <c r="U94" s="45"/>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="U94" s="44"/>
+      <c r="V94" s="45"/>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3895,12 +4033,13 @@
       <c r="O95" s="44"/>
       <c r="P95" s="46"/>
       <c r="Q95" s="45"/>
-      <c r="R95" s="44"/>
+      <c r="R95" s="45"/>
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
-      <c r="U95" s="45"/>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="U95" s="44"/>
+      <c r="V95" s="45"/>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3918,12 +4057,13 @@
       <c r="O96" s="44"/>
       <c r="P96" s="46"/>
       <c r="Q96" s="45"/>
-      <c r="R96" s="44"/>
+      <c r="R96" s="45"/>
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
-      <c r="U96" s="45"/>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="U96" s="44"/>
+      <c r="V96" s="45"/>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3941,12 +4081,13 @@
       <c r="O97" s="44"/>
       <c r="P97" s="46"/>
       <c r="Q97" s="45"/>
-      <c r="R97" s="44"/>
+      <c r="R97" s="45"/>
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
-      <c r="U97" s="45"/>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="U97" s="44"/>
+      <c r="V97" s="45"/>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3964,12 +4105,13 @@
       <c r="O98" s="44"/>
       <c r="P98" s="46"/>
       <c r="Q98" s="45"/>
-      <c r="R98" s="44"/>
+      <c r="R98" s="45"/>
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
-      <c r="U98" s="45"/>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="U98" s="44"/>
+      <c r="V98" s="45"/>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3987,12 +4129,13 @@
       <c r="O99" s="44"/>
       <c r="P99" s="46"/>
       <c r="Q99" s="45"/>
-      <c r="R99" s="44"/>
+      <c r="R99" s="45"/>
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
-      <c r="U99" s="45"/>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="U99" s="44"/>
+      <c r="V99" s="45"/>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4010,12 +4153,13 @@
       <c r="O100" s="44"/>
       <c r="P100" s="46"/>
       <c r="Q100" s="45"/>
-      <c r="R100" s="44"/>
+      <c r="R100" s="45"/>
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
-      <c r="U100" s="45"/>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="U100" s="44"/>
+      <c r="V100" s="45"/>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4033,12 +4177,13 @@
       <c r="O101" s="44"/>
       <c r="P101" s="46"/>
       <c r="Q101" s="45"/>
-      <c r="R101" s="44"/>
+      <c r="R101" s="45"/>
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
-      <c r="U101" s="45"/>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="U101" s="44"/>
+      <c r="V101" s="45"/>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4056,12 +4201,13 @@
       <c r="O102" s="44"/>
       <c r="P102" s="46"/>
       <c r="Q102" s="45"/>
-      <c r="R102" s="44"/>
+      <c r="R102" s="45"/>
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
-      <c r="U102" s="45"/>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="U102" s="44"/>
+      <c r="V102" s="45"/>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4079,12 +4225,13 @@
       <c r="O103" s="44"/>
       <c r="P103" s="46"/>
       <c r="Q103" s="45"/>
-      <c r="R103" s="44"/>
+      <c r="R103" s="45"/>
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
-      <c r="U103" s="45"/>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="U103" s="44"/>
+      <c r="V103" s="45"/>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4102,12 +4249,13 @@
       <c r="O104" s="44"/>
       <c r="P104" s="46"/>
       <c r="Q104" s="45"/>
-      <c r="R104" s="44"/>
+      <c r="R104" s="45"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
-      <c r="U104" s="45"/>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="U104" s="44"/>
+      <c r="V104" s="45"/>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4125,12 +4273,13 @@
       <c r="O105" s="44"/>
       <c r="P105" s="46"/>
       <c r="Q105" s="45"/>
-      <c r="R105" s="44"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
-      <c r="U105" s="45"/>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="U105" s="44"/>
+      <c r="V105" s="45"/>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4148,12 +4297,13 @@
       <c r="O106" s="44"/>
       <c r="P106" s="46"/>
       <c r="Q106" s="45"/>
-      <c r="R106" s="44"/>
+      <c r="R106" s="45"/>
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
-      <c r="U106" s="45"/>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="U106" s="44"/>
+      <c r="V106" s="45"/>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4171,12 +4321,13 @@
       <c r="O107" s="44"/>
       <c r="P107" s="46"/>
       <c r="Q107" s="45"/>
-      <c r="R107" s="44"/>
+      <c r="R107" s="45"/>
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
-      <c r="U107" s="45"/>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="U107" s="44"/>
+      <c r="V107" s="45"/>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4194,12 +4345,13 @@
       <c r="O108" s="44"/>
       <c r="P108" s="46"/>
       <c r="Q108" s="45"/>
-      <c r="R108" s="44"/>
+      <c r="R108" s="45"/>
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
-      <c r="U108" s="45"/>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="U108" s="44"/>
+      <c r="V108" s="45"/>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4217,12 +4369,13 @@
       <c r="O109" s="44"/>
       <c r="P109" s="46"/>
       <c r="Q109" s="45"/>
-      <c r="R109" s="44"/>
+      <c r="R109" s="45"/>
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
-      <c r="U109" s="45"/>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="U109" s="44"/>
+      <c r="V109" s="45"/>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4240,12 +4393,13 @@
       <c r="O110" s="44"/>
       <c r="P110" s="46"/>
       <c r="Q110" s="45"/>
-      <c r="R110" s="44"/>
+      <c r="R110" s="45"/>
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
-      <c r="U110" s="45"/>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="U110" s="44"/>
+      <c r="V110" s="45"/>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4263,12 +4417,13 @@
       <c r="O111" s="44"/>
       <c r="P111" s="46"/>
       <c r="Q111" s="45"/>
-      <c r="R111" s="44"/>
+      <c r="R111" s="45"/>
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
-      <c r="U111" s="45"/>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="U111" s="44"/>
+      <c r="V111" s="45"/>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4286,12 +4441,13 @@
       <c r="O112" s="44"/>
       <c r="P112" s="46"/>
       <c r="Q112" s="45"/>
-      <c r="R112" s="44"/>
+      <c r="R112" s="45"/>
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
-      <c r="U112" s="45"/>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="U112" s="44"/>
+      <c r="V112" s="45"/>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4309,12 +4465,13 @@
       <c r="O113" s="44"/>
       <c r="P113" s="46"/>
       <c r="Q113" s="45"/>
-      <c r="R113" s="44"/>
+      <c r="R113" s="45"/>
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
-      <c r="U113" s="45"/>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="U113" s="44"/>
+      <c r="V113" s="45"/>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4332,12 +4489,13 @@
       <c r="O114" s="44"/>
       <c r="P114" s="46"/>
       <c r="Q114" s="45"/>
-      <c r="R114" s="44"/>
+      <c r="R114" s="45"/>
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
-      <c r="U114" s="45"/>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="U114" s="44"/>
+      <c r="V114" s="45"/>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4355,12 +4513,13 @@
       <c r="O115" s="44"/>
       <c r="P115" s="46"/>
       <c r="Q115" s="45"/>
-      <c r="R115" s="44"/>
+      <c r="R115" s="45"/>
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
-      <c r="U115" s="45"/>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="U115" s="44"/>
+      <c r="V115" s="45"/>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4378,12 +4537,13 @@
       <c r="O116" s="44"/>
       <c r="P116" s="46"/>
       <c r="Q116" s="45"/>
-      <c r="R116" s="44"/>
+      <c r="R116" s="45"/>
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
-      <c r="U116" s="45"/>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="U116" s="44"/>
+      <c r="V116" s="45"/>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4401,12 +4561,13 @@
       <c r="O117" s="44"/>
       <c r="P117" s="46"/>
       <c r="Q117" s="45"/>
-      <c r="R117" s="44"/>
+      <c r="R117" s="45"/>
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
-      <c r="U117" s="45"/>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="U117" s="44"/>
+      <c r="V117" s="45"/>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4424,12 +4585,13 @@
       <c r="O118" s="44"/>
       <c r="P118" s="46"/>
       <c r="Q118" s="45"/>
-      <c r="R118" s="44"/>
+      <c r="R118" s="45"/>
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
-      <c r="U118" s="45"/>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="U118" s="44"/>
+      <c r="V118" s="45"/>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4447,12 +4609,13 @@
       <c r="O119" s="44"/>
       <c r="P119" s="46"/>
       <c r="Q119" s="45"/>
-      <c r="R119" s="44"/>
+      <c r="R119" s="45"/>
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
-      <c r="U119" s="45"/>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="U119" s="44"/>
+      <c r="V119" s="45"/>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4470,12 +4633,13 @@
       <c r="O120" s="44"/>
       <c r="P120" s="46"/>
       <c r="Q120" s="45"/>
-      <c r="R120" s="44"/>
+      <c r="R120" s="45"/>
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
-      <c r="U120" s="45"/>
-    </row>
-    <row r="121" spans="1:21">
+      <c r="U120" s="44"/>
+      <c r="V120" s="45"/>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4493,12 +4657,13 @@
       <c r="O121" s="44"/>
       <c r="P121" s="46"/>
       <c r="Q121" s="45"/>
-      <c r="R121" s="44"/>
+      <c r="R121" s="45"/>
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
-      <c r="U121" s="45"/>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="U121" s="44"/>
+      <c r="V121" s="45"/>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4516,12 +4681,13 @@
       <c r="O122" s="44"/>
       <c r="P122" s="46"/>
       <c r="Q122" s="45"/>
-      <c r="R122" s="44"/>
+      <c r="R122" s="45"/>
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
-      <c r="U122" s="45"/>
-    </row>
-    <row r="123" spans="1:21">
+      <c r="U122" s="44"/>
+      <c r="V122" s="45"/>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4539,12 +4705,13 @@
       <c r="O123" s="44"/>
       <c r="P123" s="46"/>
       <c r="Q123" s="45"/>
-      <c r="R123" s="44"/>
+      <c r="R123" s="45"/>
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
-      <c r="U123" s="45"/>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="U123" s="44"/>
+      <c r="V123" s="45"/>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4562,12 +4729,13 @@
       <c r="O124" s="44"/>
       <c r="P124" s="46"/>
       <c r="Q124" s="45"/>
-      <c r="R124" s="44"/>
+      <c r="R124" s="45"/>
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
-      <c r="U124" s="45"/>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="U124" s="44"/>
+      <c r="V124" s="45"/>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4585,12 +4753,13 @@
       <c r="O125" s="44"/>
       <c r="P125" s="46"/>
       <c r="Q125" s="45"/>
-      <c r="R125" s="44"/>
+      <c r="R125" s="45"/>
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
-      <c r="U125" s="45"/>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="U125" s="44"/>
+      <c r="V125" s="45"/>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4608,12 +4777,13 @@
       <c r="O126" s="44"/>
       <c r="P126" s="46"/>
       <c r="Q126" s="45"/>
-      <c r="R126" s="44"/>
+      <c r="R126" s="45"/>
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
-      <c r="U126" s="45"/>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="U126" s="44"/>
+      <c r="V126" s="45"/>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4631,12 +4801,13 @@
       <c r="O127" s="44"/>
       <c r="P127" s="46"/>
       <c r="Q127" s="45"/>
-      <c r="R127" s="44"/>
+      <c r="R127" s="45"/>
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
-      <c r="U127" s="45"/>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="U127" s="44"/>
+      <c r="V127" s="45"/>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4654,12 +4825,13 @@
       <c r="O128" s="44"/>
       <c r="P128" s="46"/>
       <c r="Q128" s="45"/>
-      <c r="R128" s="44"/>
+      <c r="R128" s="45"/>
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
-      <c r="U128" s="45"/>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="U128" s="44"/>
+      <c r="V128" s="45"/>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4677,12 +4849,13 @@
       <c r="O129" s="44"/>
       <c r="P129" s="46"/>
       <c r="Q129" s="45"/>
-      <c r="R129" s="44"/>
+      <c r="R129" s="45"/>
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
-      <c r="U129" s="45"/>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="U129" s="44"/>
+      <c r="V129" s="45"/>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4700,12 +4873,13 @@
       <c r="O130" s="44"/>
       <c r="P130" s="46"/>
       <c r="Q130" s="45"/>
-      <c r="R130" s="44"/>
+      <c r="R130" s="45"/>
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
-      <c r="U130" s="45"/>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="U130" s="44"/>
+      <c r="V130" s="45"/>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4723,9 +4897,9 @@
       <c r="O131" s="44"/>
       <c r="P131" s="46"/>
       <c r="Q131" s="45"/>
-      <c r="U131" s="45"/>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="V131" s="45"/>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4743,9 +4917,9 @@
       <c r="O132" s="44"/>
       <c r="P132" s="46"/>
       <c r="Q132" s="45"/>
-      <c r="U132" s="45"/>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="V132" s="45"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4763,9 +4937,9 @@
       <c r="O133" s="44"/>
       <c r="P133" s="46"/>
       <c r="Q133" s="45"/>
-      <c r="U133" s="45"/>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="V133" s="45"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4783,9 +4957,9 @@
       <c r="O134" s="44"/>
       <c r="P134" s="46"/>
       <c r="Q134" s="45"/>
-      <c r="U134" s="45"/>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="V134" s="45"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4803,9 +4977,9 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="U135" s="45"/>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="V135" s="45"/>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4823,9 +4997,9 @@
       <c r="O136" s="44"/>
       <c r="P136" s="46"/>
       <c r="Q136" s="45"/>
-      <c r="U136" s="45"/>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="V136" s="45"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4843,9 +5017,9 @@
       <c r="O137" s="44"/>
       <c r="P137" s="46"/>
       <c r="Q137" s="45"/>
-      <c r="U137" s="45"/>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="V137" s="45"/>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4863,9 +5037,9 @@
       <c r="O138" s="44"/>
       <c r="P138" s="46"/>
       <c r="Q138" s="45"/>
-      <c r="U138" s="45"/>
-    </row>
-    <row r="139" spans="1:21">
+      <c r="V138" s="45"/>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4883,9 +5057,9 @@
       <c r="O139" s="44"/>
       <c r="P139" s="46"/>
       <c r="Q139" s="45"/>
-      <c r="U139" s="45"/>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="V139" s="45"/>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4903,9 +5077,9 @@
       <c r="O140" s="44"/>
       <c r="P140" s="46"/>
       <c r="Q140" s="45"/>
-      <c r="U140" s="45"/>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="V140" s="45"/>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4923,9 +5097,9 @@
       <c r="O141" s="44"/>
       <c r="P141" s="46"/>
       <c r="Q141" s="45"/>
-      <c r="U141" s="45"/>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="V141" s="45"/>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4943,9 +5117,9 @@
       <c r="O142" s="44"/>
       <c r="P142" s="46"/>
       <c r="Q142" s="45"/>
-      <c r="U142" s="45"/>
-    </row>
-    <row r="143" spans="1:21">
+      <c r="V142" s="45"/>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4963,9 +5137,9 @@
       <c r="O143" s="44"/>
       <c r="P143" s="46"/>
       <c r="Q143" s="45"/>
-      <c r="U143" s="45"/>
-    </row>
-    <row r="144" spans="1:21">
+      <c r="V143" s="45"/>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4983,9 +5157,9 @@
       <c r="O144" s="44"/>
       <c r="P144" s="46"/>
       <c r="Q144" s="45"/>
-      <c r="U144" s="45"/>
-    </row>
-    <row r="145" spans="1:21">
+      <c r="V144" s="45"/>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5003,9 +5177,9 @@
       <c r="O145" s="44"/>
       <c r="P145" s="46"/>
       <c r="Q145" s="45"/>
-      <c r="U145" s="45"/>
-    </row>
-    <row r="146" spans="1:21">
+      <c r="V145" s="45"/>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5023,9 +5197,9 @@
       <c r="O146" s="44"/>
       <c r="P146" s="46"/>
       <c r="Q146" s="45"/>
-      <c r="U146" s="45"/>
-    </row>
-    <row r="147" spans="1:21">
+      <c r="V146" s="45"/>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5043,9 +5217,9 @@
       <c r="O147" s="44"/>
       <c r="P147" s="46"/>
       <c r="Q147" s="45"/>
-      <c r="U147" s="45"/>
-    </row>
-    <row r="148" spans="1:21">
+      <c r="V147" s="45"/>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5063,9 +5237,9 @@
       <c r="O148" s="44"/>
       <c r="P148" s="46"/>
       <c r="Q148" s="45"/>
-      <c r="U148" s="45"/>
-    </row>
-    <row r="149" spans="1:21">
+      <c r="V148" s="45"/>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5083,9 +5257,9 @@
       <c r="O149" s="44"/>
       <c r="P149" s="46"/>
       <c r="Q149" s="45"/>
-      <c r="U149" s="45"/>
-    </row>
-    <row r="150" spans="1:21">
+      <c r="V149" s="45"/>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5103,9 +5277,9 @@
       <c r="O150" s="44"/>
       <c r="P150" s="46"/>
       <c r="Q150" s="45"/>
-      <c r="U150" s="45"/>
-    </row>
-    <row r="151" spans="1:21">
+      <c r="V150" s="45"/>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5123,9 +5297,9 @@
       <c r="O151" s="44"/>
       <c r="P151" s="46"/>
       <c r="Q151" s="45"/>
-      <c r="U151" s="45"/>
-    </row>
-    <row r="152" spans="1:21">
+      <c r="V151" s="45"/>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5143,9 +5317,9 @@
       <c r="O152" s="44"/>
       <c r="P152" s="46"/>
       <c r="Q152" s="45"/>
-      <c r="U152" s="45"/>
-    </row>
-    <row r="153" spans="1:21">
+      <c r="V152" s="45"/>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5163,9 +5337,9 @@
       <c r="O153" s="44"/>
       <c r="P153" s="46"/>
       <c r="Q153" s="45"/>
-      <c r="U153" s="45"/>
-    </row>
-    <row r="154" spans="1:21">
+      <c r="V153" s="45"/>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5183,9 +5357,9 @@
       <c r="O154" s="44"/>
       <c r="P154" s="46"/>
       <c r="Q154" s="45"/>
-      <c r="U154" s="45"/>
-    </row>
-    <row r="155" spans="1:21">
+      <c r="V154" s="45"/>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5203,9 +5377,9 @@
       <c r="O155" s="44"/>
       <c r="P155" s="46"/>
       <c r="Q155" s="45"/>
-      <c r="U155" s="45"/>
-    </row>
-    <row r="156" spans="1:21">
+      <c r="V155" s="45"/>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5223,9 +5397,9 @@
       <c r="O156" s="44"/>
       <c r="P156" s="46"/>
       <c r="Q156" s="45"/>
-      <c r="U156" s="45"/>
-    </row>
-    <row r="157" spans="1:21">
+      <c r="V156" s="45"/>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5243,9 +5417,9 @@
       <c r="O157" s="44"/>
       <c r="P157" s="46"/>
       <c r="Q157" s="45"/>
-      <c r="U157" s="45"/>
-    </row>
-    <row r="158" spans="1:21">
+      <c r="V157" s="45"/>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5263,9 +5437,9 @@
       <c r="O158" s="44"/>
       <c r="P158" s="46"/>
       <c r="Q158" s="45"/>
-      <c r="U158" s="45"/>
-    </row>
-    <row r="159" spans="1:21">
+      <c r="V158" s="45"/>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5283,9 +5457,9 @@
       <c r="O159" s="44"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="45"/>
-      <c r="U159" s="45"/>
-    </row>
-    <row r="160" spans="1:21">
+      <c r="V159" s="45"/>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5303,9 +5477,9 @@
       <c r="O160" s="44"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="45"/>
-      <c r="U160" s="45"/>
-    </row>
-    <row r="161" spans="1:21">
+      <c r="V160" s="45"/>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5323,9 +5497,9 @@
       <c r="O161" s="44"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="45"/>
-      <c r="U161" s="45"/>
-    </row>
-    <row r="162" spans="1:21">
+      <c r="V161" s="45"/>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5343,9 +5517,9 @@
       <c r="O162" s="44"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="45"/>
-      <c r="U162" s="45"/>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="V162" s="45"/>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5363,9 +5537,9 @@
       <c r="O163" s="44"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="45"/>
-      <c r="U163" s="45"/>
-    </row>
-    <row r="164" spans="1:21">
+      <c r="V163" s="45"/>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5383,9 +5557,9 @@
       <c r="O164" s="44"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="45"/>
-      <c r="U164" s="45"/>
-    </row>
-    <row r="165" spans="1:21">
+      <c r="V164" s="45"/>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5403,12 +5577,12 @@
       <c r="O165" s="44"/>
       <c r="P165" s="46"/>
       <c r="Q165" s="45"/>
-      <c r="U165" s="45"/>
+      <c r="V165" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T11:T1048576 T6:T7 T1:T2 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U11:U1048576 U6:U7 U1:U2 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
@@ -5426,12 +5600,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576 R4:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2217"/>
+    <hyperlink ref="R3" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2217"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
